--- a/Files/abc.xlsx
+++ b/Files/abc.xlsx
@@ -20,21 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t xml:space="preserve">Họ tên</t>
+  </si>
   <si>
     <t xml:space="preserve">Mã sinh viên</t>
   </si>
   <si>
-    <t xml:space="preserve">Họ tên</t>
-  </si>
-  <si>
     <t xml:space="preserve">Email</t>
   </si>
   <si>
     <t xml:space="preserve">Đặng Hoàng Duy</t>
   </si>
   <si>
-    <t xml:space="preserve">PS16445</t>
+    <t xml:space="preserve">PS16502</t>
   </si>
   <si>
     <t xml:space="preserve">duydh@fe.fpt.vn</t>
@@ -43,37 +43,10 @@
     <t xml:space="preserve">Nguyễn Nhật Cao Thăng</t>
   </si>
   <si>
-    <t xml:space="preserve">PS14579</t>
+    <t xml:space="preserve">PS16503</t>
   </si>
   <si>
     <t xml:space="preserve">thangnnc@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lâm Quốc Khánh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS12345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khanhlq@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Mậu Phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS16509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phitm@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võ Thanh Nhã</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS16500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhavt@fe.fpt.vn</t>
   </si>
 </sst>
 </file>
@@ -83,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -117,13 +90,6 @@
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Monospace"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -176,7 +142,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,10 +156,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -277,7 +239,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -304,7 +266,7 @@
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -320,40 +282,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="duydh@fe.fpt.vn"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Files/abc.xlsx
+++ b/Files/abc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Họ tên</t>
   </si>
@@ -34,7 +34,7 @@
     <t xml:space="preserve">Đặng Hoàng Duy</t>
   </si>
   <si>
-    <t xml:space="preserve">PS16502</t>
+    <t xml:space="preserve">PS16445</t>
   </si>
   <si>
     <t xml:space="preserve">duydh@fe.fpt.vn</t>
@@ -43,10 +43,46 @@
     <t xml:space="preserve">Nguyễn Nhật Cao Thăng</t>
   </si>
   <si>
-    <t xml:space="preserve">PS16503</t>
+    <t xml:space="preserve">PS14579</t>
   </si>
   <si>
     <t xml:space="preserve">thangnnc@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lâm Quốc Khánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS16666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khanhlq@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Mậu Phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS16509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phitm@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Thanh Nhã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS16500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhavt@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Lê Duy Tiến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS16590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiennld@fe.fpt.vn</t>
   </si>
 </sst>
 </file>
@@ -239,7 +275,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -282,21 +318,52 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="duydh@fe.fpt.vn"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Files/abc.xlsx
+++ b/Files/abc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Họ tên</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t xml:space="preserve">tiennld@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Thái Duy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS16788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duynnt@fe.fpt.vn</t>
   </si>
 </sst>
 </file>
@@ -275,10 +284,10 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="26.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.52"/>
@@ -317,29 +326,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -361,7 +370,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Files/abc.xlsx
+++ b/Files/abc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Họ tên</t>
   </si>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">tiennld@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Ngọc Thái Duy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS16788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duynnt@fe.fpt.vn</t>
   </si>
 </sst>
 </file>
@@ -284,10 +275,10 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="26.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.52"/>
@@ -326,29 +317,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -370,17 +361,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Files/abc.xlsx
+++ b/Files/abc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Họ tên</t>
   </si>
@@ -83,6 +83,42 @@
   </si>
   <si>
     <t xml:space="preserve">tiennld@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Thái Duy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS16788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duynnt@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Minh Vương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS18964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vuongvm@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Tuấn Nghĩa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS14666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nghiadt@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàng Công Nhựt Vỹ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS14500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vyhcn@fe.fpt.vn</t>
   </si>
 </sst>
 </file>
@@ -275,10 +311,10 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="26.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="28.52"/>
@@ -317,29 +353,29 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -361,7 +397,50 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Files/abc.xlsx
+++ b/Files/abc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Họ tên</t>
   </si>
@@ -47,78 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">thangnnc@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lâm Quốc Khánh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS16666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khanhlq@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trần Mậu Phi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS16509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">phitm@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võ Thanh Nhã</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS16500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nhavt@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Lê Duy Tiến</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS16590</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tiennld@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nguyễn Ngọc Thái Duy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS16788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">duynnt@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Võ Minh Vương</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS18964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vuongvm@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặng Tuấn Nghĩa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS14666</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nghiadt@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàng Công Nhựt Vỹ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PS14500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vyhcn@fe.fpt.vn</t>
   </si>
 </sst>
 </file>
@@ -311,7 +239,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -351,94 +279,6 @@
       </c>
       <c r="C3" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Files/abc.xlsx
+++ b/Files/abc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t xml:space="preserve">Họ tên</t>
   </si>
@@ -47,6 +47,69 @@
   </si>
   <si>
     <t xml:space="preserve">thangnnc@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lâm Quốc Khánh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS16666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khanhlq@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trần Mậu Phi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS16509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phitm@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Thanh Nhã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS16500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhavt@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Lê Duy Tiến</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS16590</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiennld@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nguyễn Ngọc Thái Duy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS16788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duynnt@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Võ Minh Vương</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS18964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vuongvm@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đặng Tuấn Nghĩa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PS14666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nghiadt@fe.fpt.vn</t>
   </si>
 </sst>
 </file>
@@ -239,7 +302,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -281,6 +344,83 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Files/abc.xlsx
+++ b/Files/abc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Họ tên</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Đặng Hoàng Duy</t>
   </si>
   <si>
-    <t>PS16445</t>
+    <t>PS06445</t>
   </si>
   <si>
     <t>duydh@fe.fpt.vn</t>
@@ -38,7 +38,7 @@
     <t>Nguyễn Nhật Cao Thăng</t>
   </si>
   <si>
-    <t>PS14579</t>
+    <t>PS04579</t>
   </si>
   <si>
     <t>thangnnc@fe.fpt.vn</t>
@@ -56,7 +56,7 @@
     <t>Trần Mậu Phi</t>
   </si>
   <si>
-    <t>PS16509</t>
+    <t>PS06509</t>
   </si>
   <si>
     <t>phitm@fe.fpt.vn</t>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>nghiadt@fe.fpt.vn</t>
+  </si>
+  <si>
+    <t>Hoàng Công Nhựt Vỹ</t>
+  </si>
+  <si>
+    <t>PS14500</t>
+  </si>
+  <si>
+    <t>vyhcn@fe.fpt.vn</t>
   </si>
 </sst>
 </file>
@@ -112,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -127,40 +136,99 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,90 +242,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,16 +272,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,187 +317,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,21 +508,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,11 +529,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,32 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,138 +611,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,16 +1141,16 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="26.8761904761905" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5238095238095" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5142857142857" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" ht="13.5" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:3">
+    <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:3">
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1174,58 +1183,58 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="14.25" spans="1:3">
+      <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+    <row r="7" ht="14.25" spans="1:3">
+      <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+    <row r="8" ht="14.25" spans="1:3">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1249,6 +1258,17 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1"/>

--- a/Files/abc.xlsx
+++ b/Files/abc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Họ tên</t>
   </si>
@@ -105,15 +105,6 @@
   </si>
   <si>
     <t>nghiadt@fe.fpt.vn</t>
-  </si>
-  <si>
-    <t>Hoàng Công Nhựt Vỹ</t>
-  </si>
-  <si>
-    <t>PS14500</t>
-  </si>
-  <si>
-    <t>vyhcn@fe.fpt.vn</t>
   </si>
 </sst>
 </file>
@@ -121,10 +112,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0\ _₫_-;\-* #,##0\ _₫_-;_-* &quot;-&quot;\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -136,13 +127,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
       <charset val="1"/>
     </font>
     <font>
@@ -161,8 +152,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,14 +180,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,37 +212,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,9 +264,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,51 +288,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,181 +314,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,10 +502,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -540,26 +557,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,154 +591,148 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1141,16 +1132,16 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="26.8761904761905" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5238095238095" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" spans="1:3">
+    <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:3">
+    <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1172,7 +1163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:3">
+    <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1183,58 +1174,58 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1258,17 +1249,6 @@
       </c>
       <c r="C10" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="1048576" ht="12.8" customHeight="1"/>
